--- a/data/income_statement/2digits/total/96_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/96_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>96-Other personal service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>96-Other personal service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1000566.40003</v>
@@ -956,76 +862,86 @@
         <v>1215667.10739</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1418418.18419</v>
+        <v>1418658.62378</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1383085.64545</v>
+        <v>1383860.08414</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1360037.56917</v>
+        <v>1367716.33284</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1326438.40339</v>
+        <v>1335065.7545</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1534560.21157</v>
+        <v>1544148.3297</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1802611.86159</v>
+        <v>1805701.45332</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2222735.53412</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2366905.08281</v>
+        <v>2386929.71241</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2985768.7842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3070412.51731</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2629925.255</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>939294.3184000001</v>
+        <v>939294.3184</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>1157359.25205</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1345317.55354</v>
+        <v>1345557.99313</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1324682.08076</v>
+        <v>1325453.59094</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1196649.86117</v>
+        <v>1204071.19911</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1268119.3678</v>
+        <v>1276457.4625</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1452746.76697</v>
+        <v>1461936.70045</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1715367.11405</v>
+        <v>1718421.79501</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2105941.29431</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2212442.5215</v>
+        <v>2231616.91951</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2773295.989370001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2852088.57116</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2405555.389</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>27266.41125</v>
@@ -1043,7 +959,7 @@
         <v>126073.46459</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>17867.25184</v>
+        <v>17909.76896</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>20171.30985</v>
@@ -1055,115 +971,130 @@
         <v>38543.73914</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>49217.2985</v>
+        <v>49324.3739</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>65638.21520000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>68552.72486</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>111769.002</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>34005.67038</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>35541.29412999999</v>
+        <v>35541.29413</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>40883.43836</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>38072.70833</v>
+        <v>38075.63684</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>37314.24341</v>
+        <v>37571.66914</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>40451.78375</v>
+        <v>40698.52304000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>61642.13475</v>
+        <v>62040.3194</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>69751.37641</v>
+        <v>69786.28718000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>78250.50067000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>105245.26281</v>
+        <v>105988.419</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>146834.57963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>149771.22129</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>112600.864</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6271.675109999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8065.47728</v>
+        <v>8065.477279999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>15287.6667</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7262.00683</v>
+        <v>7269.87039</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12716.15108</v>
+        <v>12805.11097</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5904.13427</v>
+        <v>5961.303</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6051.02855</v>
+        <v>6051.71406</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6994.05345</v>
+        <v>7023.918310000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>9325.79593</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>9091.51634</v>
+        <v>9101.982530000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19717.55983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19925.65799</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19068.689</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3364.89834</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4198.7367</v>
+        <v>4198.736699999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>12544.21928</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4921.275549999999</v>
+        <v>4929.139109999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10584.49494</v>
+        <v>10673.45483</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4125.510020000001</v>
+        <v>4182.67875</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3327.09444</v>
+        <v>3327.77995</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>4385.38432</v>
@@ -1172,16 +1103,21 @@
         <v>5946.60286</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6154.95016</v>
+        <v>6165.41635</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17072.17702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17216.86192</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16114.924</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1763.66446</v>
@@ -1205,7 +1141,7 @@
         <v>1923.13056</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1426.71699</v>
+        <v>1456.58185</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2202.16242</v>
@@ -1214,13 +1150,18 @@
         <v>1672.35875</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1246.87497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1257.94288</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>542.849</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1143.11231</v>
@@ -1229,10 +1170,10 @@
         <v>1143.86676</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>401.9290999999999</v>
+        <v>401.9291000000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>744.2789</v>
+        <v>744.2788999999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>361.32381</v>
@@ -1253,13 +1194,18 @@
         <v>1264.20743</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1398.50784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1450.85319</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2410.916</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>994294.7249200001</v>
@@ -1268,76 +1214,86 @@
         <v>1207601.63011</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1403130.51749</v>
+        <v>1403370.95708</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1375823.63862</v>
+        <v>1376590.21375</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1347321.41809</v>
+        <v>1354911.22187</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1320534.26912</v>
+        <v>1329104.4515</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1528509.18302</v>
+        <v>1538096.61564</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1795617.80814</v>
+        <v>1798677.53501</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2213409.73819</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2357813.56647</v>
+        <v>2377827.72988</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2966051.22437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3050486.85932</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2610856.566</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>741481.65422</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>917801.5909000001</v>
+        <v>917801.5909</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1067091.08084</v>
+        <v>1067305.02979</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1051131.05319</v>
+        <v>1051633.48741</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1023945.55784</v>
+        <v>1030091.58894</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>989363.4660700001</v>
+        <v>996629.19436</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1146685.66105</v>
+        <v>1151301.68448</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1388302.76201</v>
+        <v>1391007.96098</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1674019.53815</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1796826.79324</v>
+        <v>1811989.89631</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2259982.66233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2328850.75277</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2020104.895</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>54429.49123000001</v>
@@ -1358,7 +1314,7 @@
         <v>42044.02501</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>66365.74400000001</v>
+        <v>66401.80687999999</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>72778.34864</v>
@@ -1367,16 +1323,21 @@
         <v>114823.29729</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>66915.16438</v>
+        <v>68156.36384000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>81912.69802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>84987.11645999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>95738.45699999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>212697.13647</v>
@@ -1388,34 +1349,39 @@
         <v>303896.89316</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>301763.0343</v>
+        <v>301810.80919</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>333404.48511</v>
+        <v>334104.62445</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>208211.80298</v>
+        <v>208690.42351</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>177005.81338</v>
+        <v>178454.40858</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>338821.46339</v>
+        <v>338873.81589</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>400861.17661</v>
+        <v>400861.1766100001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>361728.20761</v>
+        <v>364286.28378</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>440912.45513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>458350.97351</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>554680.723</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>473523.58329</v>
@@ -1424,37 +1390,42 @@
         <v>570586.3805900001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>675588.39534</v>
+        <v>675802.3442899999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>663285.47477</v>
+        <v>663740.1340999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>643511.2887499999</v>
+        <v>648957.18051</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>735799.5008599999</v>
+        <v>742586.60862</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>898305.9816300001</v>
+        <v>901437.34698</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>969406.10571</v>
+        <v>972058.95218</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1150812.44832</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1360408.62931</v>
+        <v>1371739.99473</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1717224.62152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1765575.06116</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1354635.682</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>831.44323</v>
@@ -1475,25 +1446,30 @@
         <v>3308.13722</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5008.122040000001</v>
+        <v>5008.12204</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>7296.84427</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7522.61593</v>
+        <v>7522.615930000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7774.791939999999</v>
+        <v>7807.253959999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>19932.88766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19937.60164</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>15050.033</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>252813.0707</v>
@@ -1502,37 +1478,42 @@
         <v>289800.03921</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>336039.43665</v>
+        <v>336065.92729</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>324692.58543</v>
+        <v>324956.7263400001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>323375.86025</v>
+        <v>324819.63293</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>331170.80305</v>
+        <v>332475.25714</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>381823.5219699999</v>
+        <v>386794.93116</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>407315.04613</v>
+        <v>407669.57403</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>539390.20004</v>
+        <v>539390.2000399999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>560986.77323</v>
+        <v>565837.83357</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>706068.56204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>721636.1065499999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>590751.671</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>240198.82638</v>
@@ -1541,37 +1522,42 @@
         <v>272300.13601</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>324753.65447</v>
+        <v>324794.42275</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>332126.83164</v>
+        <v>332738.6798800001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>333241.27767</v>
+        <v>334117.75102</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>352416.75703</v>
+        <v>353251.79597</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>412251.7161500001</v>
+        <v>418152.12745</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>449592.93951</v>
+        <v>449800.08388</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>492987.1726</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>579051.09207</v>
+        <v>586737.5493</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>714514.67686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>738920.1180199999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>665022.934</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>548.48657</v>
@@ -1586,7 +1572,7 @@
         <v>646.75264</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>657.69337</v>
+        <v>657.6933700000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>423.00676</v>
@@ -1604,13 +1590,18 @@
         <v>44.1262</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>544.1115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>575.06486</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>68.598</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24011.25547</v>
@@ -1625,31 +1616,36 @@
         <v>40406.23499</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>45354.12822000001</v>
+        <v>45416.42804999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>44860.15172</v>
+        <v>45081.25209</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>56556.48976999999</v>
+        <v>56568.78707</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>58882.22493</v>
+        <v>58883.53850000001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>60036.49607000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>66660.14193</v>
+        <v>66954.93872999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>88345.5043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>90296.65639</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>93336.59</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>215639.08434</v>
@@ -1658,37 +1654,42 @@
         <v>244183.10175</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>290839.9951</v>
+        <v>290880.76338</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>291073.84401</v>
+        <v>291685.69225</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>287229.45608</v>
+        <v>288043.6296</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>307133.59855</v>
+        <v>307747.53712</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>355487.91538</v>
+        <v>361376.02938</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>390575.18876</v>
+        <v>390781.01956</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>432943.07059</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>512346.82394</v>
+        <v>519738.48437</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>625625.06106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>648048.39677</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>571617.746</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>12614.24432</v>
@@ -1697,76 +1698,86 @@
         <v>17499.9032</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>11285.78218</v>
+        <v>11271.50454</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-7434.246210000001</v>
+        <v>-7781.95354</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-9865.41742</v>
+        <v>-9298.118090000002</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-21245.95398</v>
+        <v>-20776.53883</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-30428.19418</v>
+        <v>-31357.19629</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-42277.89338</v>
+        <v>-42130.50985</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>46403.02744000001</v>
+        <v>46403.02743999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-18064.31884</v>
+        <v>-20899.71573</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-8446.114819999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-17284.01146999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-74271.26300000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>27092.64411</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>77396.04006999999</v>
+        <v>77396.04007</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>17725.46764</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15104.10698</v>
+        <v>15104.12929</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17580.52496</v>
+        <v>17596.67547</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>25044.77458</v>
+        <v>25065.1527</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>31214.51287</v>
+        <v>31422.32143</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>36288.17695</v>
+        <v>36304.38357</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>39819.61306</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>64119.89334999999</v>
+        <v>64202.99461</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>68966.47070000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>69079.53049999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>100508.393</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>10689.62887</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>18.04331</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>4.658</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1000.93786</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>481.03429</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1890.155</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3023.85132</v>
@@ -1856,16 +1877,16 @@
         <v>2599.13634</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3072.35375</v>
+        <v>3072.37606</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2889.92144</v>
+        <v>2902.13714</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3848.62518</v>
+        <v>3868.65982</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5144.858449999999</v>
+        <v>5145.321349999999</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>4334.8381</v>
@@ -1874,16 +1895,21 @@
         <v>6828.74416</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9466.422640000001</v>
+        <v>9466.99596</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11059.7275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11089.19296</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10434.545</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>217.61991</v>
@@ -1918,20 +1944,25 @@
       <c r="M29" s="48" t="n">
         <v>175.80154</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>494.23748</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>439.94547</v>
+        <v>439.9454700000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>390.1954900000001</v>
+        <v>390.19549</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>134.47581</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>743.88431</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>67.633</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3547.61654</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>52586.94811999999</v>
+        <v>52586.94812</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>97.94133000000001</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>10787.52882</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>167.495</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3877.65175</v>
@@ -2009,19 +2050,19 @@
         <v>8023.625</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6344.022610000001</v>
+        <v>6344.02261</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>4855.31909</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6512.44033</v>
+        <v>6516.375140000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8931.77476</v>
+        <v>8931.835729999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13228.74234</v>
+        <v>13425.06998</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>7093.78352</v>
@@ -2030,16 +2071,21 @@
         <v>9307.70585</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>33964.99039</v>
+        <v>33969.51145</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21247.72727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>21296.20417</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>24961.441</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.97794</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>123.92781</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>104.694</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.1264</v>
@@ -2111,52 +2162,62 @@
         <v>3.63145</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>68.61851999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>68.75283999999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1.951</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4236.99604</v>
+        <v>4236.996039999999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>3679.52153</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6865.823510000001</v>
+        <v>6865.82351</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>6412.710950000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6322.84576</v>
+        <v>6322.845760000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7655.13422</v>
+        <v>7655.41673</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10325.1242</v>
+        <v>10336.14222</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18418.54813</v>
+        <v>18434.75475</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>17300.70058</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>19769.0932</v>
+        <v>19847.10008</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>24260.17733</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24295.16045</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>62627.421</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>7572.93352</v>
@@ -2168,34 +2229,39 @@
         <v>13754.03018</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6575.06301</v>
+        <v>6579.739590000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>13416.89698</v>
+        <v>13427.45068</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10101.13649</v>
+        <v>10128.81109</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>23878.04981</v>
+        <v>24020.66365</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>32528.53725</v>
+        <v>32584.15118</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>27250.75707</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>63809.93231</v>
+        <v>63878.59078</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31075.08704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>31292.49369</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>69061.334</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>506.29668</v>
@@ -2204,7 +2270,7 @@
         <v>555.30598</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>662.8390000000002</v>
+        <v>662.8390000000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>761.4289</v>
@@ -2213,7 +2279,7 @@
         <v>835.3451499999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>810.3477100000001</v>
+        <v>814.61212</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1100.85272</v>
@@ -2225,16 +2291,21 @@
         <v>1350.72632</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1670.15118</v>
+        <v>1673.21063</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2220.37917</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2270.67996</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1820.688</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1110.5894</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2226.09021</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>511.877</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.7950499999999999</v>
@@ -2291,7 +2367,7 @@
         <v>102.7731</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>523.91099</v>
+        <v>523.9109900000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>22.31698</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>106.0773</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>11.266</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3718.08972</v>
@@ -2324,34 +2405,39 @@
         <v>9885.93333</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2581.87265</v>
+        <v>2581.97531</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9495.598940000002</v>
+        <v>9504.518460000001</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>5561.08826</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17832.82438</v>
+        <v>17937.31278</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13603.40583</v>
+        <v>13603.40618</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>17983.39725</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>53801.75016</v>
+        <v>53847.07711</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>20467.49128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>20559.7903</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>24980.012</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,7 +2455,7 @@
         <v>103.23639</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>181.30865</v>
+        <v>204.71867</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>4.90675</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.02275</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.13219</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.0001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2236.03048</v>
@@ -2441,34 +2537,39 @@
         <v>3042.61993</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2647.79681</v>
+        <v>2652.37073</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2406.33036</v>
+        <v>2407.96454</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2733.06657</v>
+        <v>2733.06674</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3746.3351</v>
+        <v>3784.46054</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>10215.82833</v>
+        <v>10271.44191</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>5919.97858</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6260.38907</v>
+        <v>6280.66114</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6055.02623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6129.833070000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41737.491</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>17853.40362</v>
@@ -2480,34 +2581,39 @@
         <v>21277.47703</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>24192.62414</v>
+        <v>24263.47421</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23511.11578</v>
+        <v>23998.7865</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>25373.47392</v>
+        <v>26210.16718</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>35811.91615999999</v>
+        <v>36159.81764</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>53590.02118</v>
+        <v>53601.67974</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>70004.09598</v>
+        <v>70004.09597999998</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>71712.18216</v>
+        <v>71743.83375000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>80113.54483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>80506.68800999998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>63769.359</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>17175.16616</v>
@@ -2519,34 +2625,39 @@
         <v>20978.88553</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>24010.76416</v>
+        <v>24081.61423</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>23166.89579</v>
+        <v>23652.44697</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24972.00596</v>
+        <v>25808.16422</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>34704.25274</v>
+        <v>35052.15422</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>43365.45651999999</v>
+        <v>43377.11508</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>50685.92395</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>60497.59164</v>
+        <v>60529.24323000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>76916.43734</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>77309.58052000002</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>61958.903</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>678.2374599999999</v>
@@ -2561,10 +2672,10 @@
         <v>181.85998</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>344.21999</v>
+        <v>346.33953</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>401.46796</v>
+        <v>402.00296</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>1107.66342</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>3197.10749</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1810.456</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>14280.55129</v>
@@ -2594,76 +2710,86 @@
         <v>68228.88936</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-6020.257389999999</v>
+        <v>-6034.535029999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-23097.82638</v>
+        <v>-23521.03805</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-29212.90522</v>
+        <v>-29127.6798</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-31675.78981</v>
+        <v>-32050.3644</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-58903.64728</v>
+        <v>-60115.35615</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-92108.27485999999</v>
+        <v>-92011.95719999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-11032.21255</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-89466.53996000001</v>
+        <v>-92319.14564999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-50668.27599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-60003.66267</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-106593.563</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6435.164510000001</v>
+        <v>6435.16451</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8944.458630000001</v>
+        <v>8944.458629999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>13071.86991</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>12717.17442</v>
+        <v>12748.38802</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13115.68957</v>
+        <v>13323.94967</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>19335.83655</v>
+        <v>19406.64503</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>21796.75181</v>
+        <v>21828.27718</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>31836.10757</v>
+        <v>32130.44874</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>33331.47182</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>38734.94786</v>
+        <v>38779.13522</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>42142.35569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>42580.73538000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>52306.055</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>128.8565</v>
@@ -2678,13 +2804,13 @@
         <v>987.20933</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>98.54881000000002</v>
+        <v>138.48579</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>24.01262</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>127.02728</v>
+        <v>127.02764</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>132.96434</v>
@@ -2696,13 +2822,18 @@
         <v>263.71367</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>145.55508</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>147.04945</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>687.232</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>6306.30801</v>
@@ -2714,34 +2845,39 @@
         <v>12710.43496</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11729.96509</v>
+        <v>11761.17869</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13017.14076</v>
+        <v>13185.46388</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>19311.82393</v>
+        <v>19382.63241</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21669.72453</v>
+        <v>21701.24954</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>31703.14323</v>
+        <v>31997.4844</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>33209.98372</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>38471.23419</v>
+        <v>38515.42155000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>41996.80061000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>42433.68593</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>51618.823</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>10563.30436</v>
@@ -2753,34 +2889,39 @@
         <v>79082.67706999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15580.4596</v>
+        <v>15653.77934</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>16675.46858</v>
+        <v>16766.02037</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>43450.07298</v>
+        <v>43559.63786</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19666.48007</v>
+        <v>19681.40159</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>73597.53341</v>
+        <v>73738.88753000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>26438.72504</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>64694.35732</v>
+        <v>65140.87139</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>29280.33942</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>31506.07454</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>34260.659</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>361.16083</v>
@@ -2810,16 +2951,21 @@
         <v>1099.07634</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>794.00552</v>
+        <v>833.08191</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>876.34789</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>907.5295600000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1258.058</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>676.60649</v>
@@ -2837,28 +2983,33 @@
         <v>2467.95438</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1295.43568</v>
+        <v>1295.83229</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1441.35676</v>
+        <v>1441.42476</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1252.45997</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>881.2586899999999</v>
+        <v>881.2586900000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1762.05603</v>
+        <v>1762.12547</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1347.40045</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1348.41034</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>935.66</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>9525.537039999999</v>
@@ -2867,37 +3018,42 @@
         <v>12220.10767</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>77729.11714000002</v>
+        <v>77729.11714</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13915.73874</v>
+        <v>13989.05848</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>13506.78049</v>
+        <v>13597.33228</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41995.1499</v>
+        <v>42104.31817</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17791.86426</v>
+        <v>17806.71778</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>71793.95822</v>
+        <v>71935.31234</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>24458.39001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>62138.29577</v>
+        <v>62545.66401</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>27056.59108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>29250.13464</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32066.941</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>10152.41144</v>
@@ -2906,40 +3062,45 @@
         <v>63594.34081</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-72031.06455</v>
+        <v>-72045.34219</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-25961.11155999999</v>
+        <v>-26426.42937</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-32772.68423</v>
+        <v>-32569.7505</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-55790.02623999999</v>
+        <v>-56203.35723</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-56773.37553999999</v>
+        <v>-57968.48056</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-133869.7007</v>
+        <v>-133620.39599</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4139.465770000003</v>
+        <v>-4139.465770000004</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-115425.94942</v>
+        <v>-118680.88182</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-37806.25972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-48929.00183000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-88548.167</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9607.418079999998</v>
+        <v>9607.418079999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>14771.66228</v>
@@ -2954,64 +3115,72 @@
         <v>10516.5899</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>12045.76233</v>
+        <v>12051.5416</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14296.96026</v>
+        <v>14308.66315</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14375.60602</v>
+        <v>14416.57274</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>20191.92681</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>22451.63241</v>
+        <v>22545.38442999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>32848.12939</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>33343.38564</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25410.919</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>544.9933599999994</v>
+        <v>544.9933599999998</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>48822.67852999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-85788.36278999998</v>
+        <v>-85802.64043</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-38585.99605</v>
+        <v>-39051.31386</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-43289.27413000001</v>
+        <v>-43086.3404</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-67835.78856999999</v>
+        <v>-68254.89882999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-71070.3358</v>
+        <v>-72277.14371</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-148245.30672</v>
+        <v>-148036.96873</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-24331.39258000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-137877.58183</v>
+        <v>-141226.26625</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-70654.38911000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-82272.38747</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-113959.086</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4420</v>
@@ -3038,34 +3210,37 @@
         <v>4599</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4562</v>
+        <v>4564</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4232</v>
+        <v>4239</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3489</v>
+        <v>3501</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3304</v>
+        <v>3320</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3306</v>
+        <v>3329</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3481</v>
+        <v>3503</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3783</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3842</v>
+        <v>4040</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4521</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>